--- a/biology/Médecine/Syndrome_de_Beckwith-Wiedemann/Syndrome_de_Beckwith-Wiedemann.xlsx
+++ b/biology/Médecine/Syndrome_de_Beckwith-Wiedemann/Syndrome_de_Beckwith-Wiedemann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de Beckwith-Wiedemann est une maladie génétique se caractérisant par une croissance excessive du fœtus (gigantisme), une grosse langue (macroglossie), une hémi-hyperplasie, une hypertrophie des organes (viscéromégalie), une omphalocèle ou une hernie ombilicale, une prédisposition à développer une tumeur embryonnaire, des anomalies des oreilles et des hypoglycémies.
 </t>
@@ -511,16 +523,16 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les causes génétiques du syndrome de Beckwith-Wiedemann sont complexes. Dans la majorité des cas on retrouve une expression biallélique du gène IGF-2, localisé sur le Chromosome 11[1], au cours du développement. Cette anomalie est de type épigénétique[2]. D'autres formes ont une méthylation aberrante des gènes H19 ou KCNQ1OT1 situés sur ce même chromosome, les premiers étant plus susceptible de développer des tumeurs[3]. D'autres ont une mutation sur le gène CDKN1C[4], cette dernière étant possiblement responsable des défauts de méthylation décrits[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les causes génétiques du syndrome de Beckwith-Wiedemann sont complexes. Dans la majorité des cas on retrouve une expression biallélique du gène IGF-2, localisé sur le Chromosome 11, au cours du développement. Cette anomalie est de type épigénétique. D'autres formes ont une méthylation aberrante des gènes H19 ou KCNQ1OT1 situés sur ce même chromosome, les premiers étant plus susceptible de développer des tumeurs. D'autres ont une mutation sur le gène CDKN1C, cette dernière étant possiblement responsable des défauts de méthylation décrits.
 Cette maladie résulte généralement de la régulation anormale des gènes dans une région particulière du chromosome 11. Les gens héritent normalement d'une copie de ce chromosome de chaque parent. Pour la plupart des gènes du chromosome 11, les deux copies du gène sont exprimées ou «activées» dans les cellules. Pour certains gènes, cependant, seule la copie héritée du père d'une personne (la copie héritée paternellement) est exprimée. Pour les autres gènes, seule la copie héritée de la mère d'une personne (la copie héritée de la mère) est exprimée. Ces différences d'expression génique propres aux parents sont causées par un phénomène appelé empreinte génomique. Les anomalies impliquant des gènes sur le chromosome 11 qui subissent une empreinte génomique sont responsables de la plupart des cas de syndrome de Beckwith-Wiedemann.
 Au moins la moitié de tous les cas résultent de changements dans un processus appelé méthylation. La méthylation est une réaction chimique qui attache de petites molécules appelées groupes méthyle à certains segments de l'ADN. Dans les gènes qui subissent une empreinte génomique, la méthylation est une façon dont le parent d'origine d'un gène est marqué pendant la formation des ovules et des spermatozoïdes. Le syndrome de Beckwith-Wiedemann est souvent associé à des changements dans les régions d'ADN sur le chromosome 11 appelés centres d'impression (CI). Les CI contrôlent la méthylation de plusieurs gènes impliqués dans la croissance normale, notamment les gènes CDKN1C, H19, IGF2 et KCNQ1OT1. Une méthylation anormale perturbe la régulation de ces gènes, ce qui entraîne une prolifération excessive et les autres caractéristiques du syndrome de Beckwith-Wiedemann.
 Environ vingt pour cent des cas de syndrome de Beckwith-Wiedemann sont causés par un changement génétique appelé disomie uniparentale paternelle (UPD). L'UPD paternelle oblige les gens à avoir deux copies actives de gènes hérités paternellement plutôt qu'une copie active du père et une copie inactive de la mère. Les personnes atteintes d'une UPD paternelle sont également dépourvues de gènes qui ne sont actifs que sur la copie héréditaire maternelle du chromosome. Dans le syndrome de Beckwith-Wiedemann, l'UPD paternelle survient généralement au début du développement embryonnaire et n'affecte que certaines cellules du corps. Ce phénomène est appelé mosaïcisme. L'UPD paternelle mosaïque entraîne un déséquilibre des gènes paternels et maternels actifs sur le chromosome 11, qui sous-tend les signes et symptômes de la maladie.
 Plus rarement, les mutations du gène CDKN1C provoquent le syndrome de Beckwith-Wiedemann. Ce gène fournit des instructions pour fabriquer une protéine qui aide à contrôler la croissance avant la naissance. Des mutations dans le gène CDKN1C empêchent cette protéine de freiner la croissance, ce qui conduit aux anomalies caractéristiques du syndrome.
 Environ 1 % de toutes les personnes atteintes du syndrome de Beckwith-Wiedemann ont une anomalie chromosomique telle qu'un réarrangement (translocation), une copie anormale (duplication) ou une perte (suppression) de matériel génétique du chromosome 11. Comme les autres changements génétiques responsables de Beckwith-Wiedemann, ces anomalies perturbent la régulation normale de certains gènes sur ce chromosome
-Assistance médicale à la procréation
-L'AMP (Assistance médicale à la procréation) est un terme générique faisant référence aux méthodes utilisées pour obtenir une grossesse par des moyens artificiels ou partiellement artificiels. Les procédures AMP consistent en général à retirer chirurgicalement les ovules des ovaires d'une femme, à les combiner avec du sperme en laboratoire et à les remettre dans le corps de la femme ou à les donner à une autre femme. L'AMP a été associée à des syndromes épigénétiques, en particulier le syndrome de Beckwith-Wiedemann et le syndrome d'Angelman. Trois groupes ont montré un taux accru de conception ART chez les enfants atteints de BWS[6],[7],[8],[9]. Une autre étude a révélé que les enfants conçus par fécondation in vitro (FIV) sont trois à quatre fois plus susceptibles de développer la maladie[10]. Aucun type spécifique d'AMP n'a été associé plus étroitement au syndrome que d'autres, et le mécanisme par lequel l'AMP produirait cet effet n'est pas encore expliqué.
 </t>
         </is>
       </c>
@@ -546,13 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Incidence et prévalence</t>
+          <t>Causes</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le syndrome de Beckwith-Wiedemann affecte 1 nouveau-né sur 10 500 à 13 700 dans le monde[11]. Ce syndrome peut en fait être plus courant que cette estimation car certaines personnes présentant des symptômes bénins ne sont jamais diagnostiquées.
-Le SBW a été signalé dans une grande variété de populations avec une incidence égale chez les hommes et les femmes.
+          <t>Assistance médicale à la procréation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'AMP (Assistance médicale à la procréation) est un terme générique faisant référence aux méthodes utilisées pour obtenir une grossesse par des moyens artificiels ou partiellement artificiels. Les procédures AMP consistent en général à retirer chirurgicalement les ovules des ovaires d'une femme, à les combiner avec du sperme en laboratoire et à les remettre dans le corps de la femme ou à les donner à une autre femme. L'AMP a été associée à des syndromes épigénétiques, en particulier le syndrome de Beckwith-Wiedemann et le syndrome d'Angelman. Trois groupes ont montré un taux accru de conception ART chez les enfants atteints de BWS. Une autre étude a révélé que les enfants conçus par fécondation in vitro (FIV) sont trois à quatre fois plus susceptibles de développer la maladie. Aucun type spécifique d'AMP n'a été associé plus étroitement au syndrome que d'autres, et le mécanisme par lequel l'AMP produirait cet effet n'est pas encore expliqué.
 </t>
         </is>
       </c>
@@ -578,10 +595,46 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Incidence et prévalence</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome de Beckwith-Wiedemann affecte 1 nouveau-né sur 10 500 à 13 700 dans le monde. Ce syndrome peut en fait être plus courant que cette estimation car certaines personnes présentant des symptômes bénins ne sont jamais diagnostiquées.
+Le SBW a été signalé dans une grande variété de populations avec une incidence égale chez les hommes et les femmes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Beckwith-Wiedemann</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Beckwith-Wiedemann</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de Beckwith-Wiedemann est une affection qui affecte de nombreuses parties du corps. Il est classé comme un syndrome macrosomique , ce qui signifie que les nourrissons touchés sont considérablement plus gros que la normale (macrosomie) et ont tendance à être plus grands que leurs pairs pendant l'enfance. La croissance commence à ralentir vers l'âge de 8 ans, et les adultes atteints de cette maladie ne sont pas inhabituellement grands. Chez certains enfants atteints du syndrome, des parties spécifiques du corps d'un côté ou de l'autre peuvent devenir anormalement grandes, conduisant à une apparence asymétrique ou inégale. Ce schéma de croissance inhabituel, connu sous le nom d'hémi-hyperplasie, devient généralement moins apparent au fil du temps.
 Les signes et symptômes du syndrome  varient selon les individus affectés. Certains enfants atteints de cette maladie naissent avec une ouverture dans la paroi de l'abdomen (une omphalocèle) qui permet aux organes abdominaux de dépasser à travers le nombril. D'autres défauts de la paroi abdominale, comme une poche molle autour du nombril (une hernie ombilicale), sont également fréquents. Certains nourrissons atteints du syndrome de Beckwith-Wiedemann ont une langue anormalement grande (macroglossie), ce qui peut gêner la respiration, la déglutition et la parole. D'autres caractéristiques majeures de cette affection comprennent des organes abdominaux anormalement grands (viscéromégalie), des plis ou des piqûres dans la peau près des oreilles, une glycémie basse (hypoglycémie) pendant la petite enfance et des anomalies rénales.
@@ -591,37 +644,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Syndrome_de_Beckwith-Wiedemann</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Beckwith-Wiedemann</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Évolution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le risque de survenue d'un cancer est important dans les premières années de la vie, surtout à type de neuroblastome, néphroblastome ou d'hépatoblastome[12],[13].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -643,10 +665,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Diagnostic</t>
+          <t>Évolution</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le risque de survenue d'un cancer est important dans les premières années de la vie, surtout à type de neuroblastome, néphroblastome ou d'hépatoblastome,.
+</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -669,10 +698,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Troubles génétiquement apparentés (alléliques)</t>
+          <t>Diagnostic</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -695,10 +726,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Diagnostic différentiel</t>
+          <t>Troubles génétiquement apparentés (alléliques)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -721,17 +754,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Prise en charge et traitement</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traitement
-Prise en charge
-La prise en charge implique des stratégies médicales palliatives, chirurgicales. La surveillance tumorale doit être instaurée (chez le patient suspect ou diagnostiqué, ainsi que chez le jumeau asymptomatique). celle-ci ne doit pas être guidée par des corrélations génotype/phénotype. Le dépistage néonatal d'une hypoglycémie doit être entrepris s'il existe des signes prénataux diagnostiques ou évocateurs ou même chez le nouveau-né asymptomatique mais à haut risque du fait d'antécédents familiaux[14].
-</t>
-        </is>
-      </c>
+          <t>Diagnostic différentiel</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -754,10 +782,21 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Conseil génétique</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>Prise en charge et traitement</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Prise en charge</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prise en charge implique des stratégies médicales palliatives, chirurgicales. La surveillance tumorale doit être instaurée (chez le patient suspect ou diagnostiqué, ainsi que chez le jumeau asymptomatique). celle-ci ne doit pas être guidée par des corrélations génotype/phénotype. Le dépistage néonatal d'une hypoglycémie doit être entrepris s'il existe des signes prénataux diagnostiques ou évocateurs ou même chez le nouveau-né asymptomatique mais à haut risque du fait d'antécédents familiaux.
+</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -780,10 +819,40 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>Conseil génétique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Beckwith-Wiedemann</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Beckwith-Wiedemann</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Diagnostic prénatal</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diagnostic génétique peut être fait par prélèvement invasif (biopsie de trophoblaste ou amniocentèse): réalisation d’un caryotype et d’une puce à ADN (ACPA). Le plus souvent. Le caryotype est normal. L’étude en génétique moléculaire peut permettre de mettre en évidence une anomalie de la région 11p15.5 (sur le bras court du chromosome 11). A noter qu’un tiers dès Wiedemann- Beckwith n’ont pas d’anomalie génétique identifiée.
 </t>
